--- a/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\CRbQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Indonesia\eps-indonesia\InputData\elec\CRbQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F72D85-7333-4E7C-B427-2AF636E0A886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B0382E-C420-4C26-BED0-486D556AF43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7935" yWindow="120" windowWidth="19140" windowHeight="17160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
@@ -182,8 +182,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -417,7 +417,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -425,19 +425,17 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="15"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -736,22 +734,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -759,122 +757,122 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -896,14 +894,14 @@
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
@@ -1001,11 +999,11 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>9236.7000000000007</v>
       </c>
       <c r="C2" s="1">
@@ -1099,15 +1097,15 @@
         <v>0</v>
       </c>
       <c r="AG2" s="1"/>
-      <c r="AH2" s="9">
+      <c r="AH2" s="8">
         <v>118231.113</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>789.7</v>
       </c>
       <c r="C3" s="1">
@@ -1201,117 +1199,117 @@
         <v>398.00200000000768</v>
       </c>
       <c r="AG3" s="1"/>
-      <c r="AH3" s="9">
+      <c r="AH3" s="8">
         <v>45986.897999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>1612.9</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1036.3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>768.5</v>
       </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
         <v>1122</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>1118</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>2171</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>4773.9009999999998</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>984.5</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>1168.0010000000002</v>
       </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
         <v>5006.9999999999982</v>
       </c>
-      <c r="P4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>0</v>
-      </c>
-      <c r="R4" s="10">
-        <v>0</v>
-      </c>
-      <c r="S4" s="10">
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
         <v>833.29899999999907</v>
       </c>
-      <c r="T4" s="10">
-        <v>0</v>
-      </c>
-      <c r="U4" s="10">
-        <v>0</v>
-      </c>
-      <c r="V4" s="10">
-        <v>0</v>
-      </c>
-      <c r="W4" s="10">
-        <v>0</v>
-      </c>
-      <c r="X4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="10">
+      <c r="T4" s="9">
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+      <c r="X4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="9">
         <v>1225.0010000000038</v>
       </c>
-      <c r="AE4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="10">
+      <c r="AE4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="9">
         <v>0</v>
       </c>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="9">
+      <c r="AH4" s="8">
         <v>21820.402000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>6</v>
       </c>
       <c r="C5" s="1">
@@ -1405,15 +1403,15 @@
         <v>2</v>
       </c>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="9">
+      <c r="AH5" s="8">
         <v>965.59999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -1507,15 +1505,15 @@
         <v>0</v>
       </c>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AH6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -1609,15 +1607,15 @@
         <v>0</v>
       </c>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AH7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0</v>
       </c>
       <c r="C8" s="1">
@@ -1711,15 +1709,15 @@
         <v>0</v>
       </c>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AH8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0</v>
       </c>
       <c r="C9" s="1">
@@ -1813,15 +1811,15 @@
         <v>0</v>
       </c>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AH9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0</v>
       </c>
       <c r="C10" s="1">
@@ -1915,15 +1913,15 @@
         <v>0</v>
       </c>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AH10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>1119.8</v>
       </c>
       <c r="C11" s="1">
@@ -2017,15 +2015,15 @@
         <v>0</v>
       </c>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="9">
+      <c r="AH11" s="8">
         <v>1718.1999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>1323.3999999999999</v>
       </c>
       <c r="C12" s="1">
@@ -2119,15 +2117,15 @@
         <v>0</v>
       </c>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="9">
+      <c r="AH12" s="8">
         <v>6845.9999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>0</v>
       </c>
       <c r="C13" s="1">
@@ -2221,15 +2219,15 @@
         <v>0</v>
       </c>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AH13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>0</v>
       </c>
       <c r="C14" s="1">
@@ -2323,15 +2321,15 @@
         <v>0</v>
       </c>
       <c r="AG14" s="1"/>
-      <c r="AH14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AH14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>0</v>
       </c>
       <c r="C15" s="1">
@@ -2425,15 +2423,15 @@
         <v>0</v>
       </c>
       <c r="AG15" s="1"/>
-      <c r="AH15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AH15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16" s="1">
@@ -2527,15 +2525,15 @@
         <v>0</v>
       </c>
       <c r="AG16" s="1"/>
-      <c r="AH16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AH16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>0</v>
       </c>
       <c r="C17" s="1">
@@ -2629,19 +2627,19 @@
         <v>0</v>
       </c>
       <c r="AG17" s="1"/>
-      <c r="AH17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AH17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -2739,7 +2737,7 @@
         <v>118231.113</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -2837,7 +2835,7 @@
         <v>45986.897999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -2935,7 +2933,7 @@
         <v>21820.402000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -3033,7 +3031,7 @@
         <v>965.59999999999991</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -3131,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -3229,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -3425,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -3523,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -3621,7 +3619,7 @@
         <v>1718.1999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -3719,7 +3717,7 @@
         <v>6845.9999999999991</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -3817,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -3915,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -4013,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -4111,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -4209,3251 +4207,3251 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>35</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>52</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <v>90</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="11">
         <v>124</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="11">
         <v>151</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <v>228</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>255</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="11">
         <v>280</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="11">
         <v>323</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="11">
         <v>366</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="11">
         <v>385</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="11">
         <v>388</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="11">
         <v>398</v>
       </c>
-      <c r="O39" s="12">
+      <c r="O39" s="11">
         <v>401</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="11">
         <v>421</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q39" s="11">
         <v>428</v>
       </c>
-      <c r="R39" s="12">
+      <c r="R39" s="11">
         <v>432</v>
       </c>
-      <c r="S39" s="12">
+      <c r="S39" s="11">
         <v>434</v>
       </c>
-      <c r="T39" s="12">
+      <c r="T39" s="11">
         <v>439</v>
       </c>
-      <c r="U39" s="12">
+      <c r="U39" s="11">
         <v>440</v>
       </c>
-      <c r="V39" s="12">
+      <c r="V39" s="11">
         <v>447</v>
       </c>
-      <c r="W39" s="12">
+      <c r="W39" s="11">
         <v>448</v>
       </c>
-      <c r="X39" s="12">
+      <c r="X39" s="11">
         <v>448</v>
       </c>
-      <c r="Y39" s="12">
+      <c r="Y39" s="11">
         <v>448</v>
       </c>
-      <c r="Z39" s="12">
+      <c r="Z39" s="11">
         <v>448</v>
       </c>
-      <c r="AA39" s="12">
+      <c r="AA39" s="11">
         <v>458</v>
       </c>
-      <c r="AB39" s="12">
+      <c r="AB39" s="11">
         <v>458</v>
       </c>
-      <c r="AC39" s="12">
+      <c r="AC39" s="11">
         <v>458</v>
       </c>
-      <c r="AD39" s="12">
+      <c r="AD39" s="11">
         <v>458</v>
       </c>
-      <c r="AE39" s="12">
+      <c r="AE39" s="11">
         <v>458</v>
       </c>
-      <c r="AF39" s="12">
+      <c r="AF39" s="11">
         <v>458</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>5</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>6</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>21</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>69</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <v>132</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <v>177</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>196</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="11">
         <v>210</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="11">
         <v>215</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="11">
         <v>224</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="11">
         <v>228</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="11">
         <v>235</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="11">
         <v>240</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O40" s="11">
         <v>246</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="11">
         <v>249</v>
       </c>
-      <c r="Q40" s="12">
+      <c r="Q40" s="11">
         <v>261</v>
       </c>
-      <c r="R40" s="12">
+      <c r="R40" s="11">
         <v>266</v>
       </c>
-      <c r="S40" s="12">
+      <c r="S40" s="11">
         <v>274</v>
       </c>
-      <c r="T40" s="12">
+      <c r="T40" s="11">
         <v>274</v>
       </c>
-      <c r="U40" s="12">
+      <c r="U40" s="11">
         <v>274</v>
       </c>
-      <c r="V40" s="12">
+      <c r="V40" s="11">
         <v>278</v>
       </c>
-      <c r="W40" s="12">
+      <c r="W40" s="11">
         <v>278</v>
       </c>
-      <c r="X40" s="12">
+      <c r="X40" s="11">
         <v>281</v>
       </c>
-      <c r="Y40" s="12">
+      <c r="Y40" s="11">
         <v>281</v>
       </c>
-      <c r="Z40" s="12">
+      <c r="Z40" s="11">
         <v>286</v>
       </c>
-      <c r="AA40" s="12">
+      <c r="AA40" s="11">
         <v>286</v>
       </c>
-      <c r="AB40" s="12">
+      <c r="AB40" s="11">
         <v>286</v>
       </c>
-      <c r="AC40" s="12">
+      <c r="AC40" s="11">
         <v>286</v>
       </c>
-      <c r="AD40" s="12">
+      <c r="AD40" s="11">
         <v>287</v>
       </c>
-      <c r="AE40" s="12">
+      <c r="AE40" s="11">
         <v>296</v>
       </c>
-      <c r="AF40" s="12">
+      <c r="AF40" s="11">
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>3</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>5</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>6</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <v>6</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="11">
         <v>6</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="11">
         <v>9</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <v>11</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="11">
         <v>15</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="11">
         <v>25</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="11">
         <v>27</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="11">
         <v>29</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="11">
         <v>29</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="11">
         <v>29</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O41" s="11">
         <v>39</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P41" s="11">
         <v>39</v>
       </c>
-      <c r="Q41" s="12">
+      <c r="Q41" s="11">
         <v>39</v>
       </c>
-      <c r="R41" s="12">
+      <c r="R41" s="11">
         <v>39</v>
       </c>
-      <c r="S41" s="12">
+      <c r="S41" s="11">
         <v>41</v>
       </c>
-      <c r="T41" s="12">
+      <c r="T41" s="11">
         <v>41</v>
       </c>
-      <c r="U41" s="12">
+      <c r="U41" s="11">
         <v>41</v>
       </c>
-      <c r="V41" s="12">
+      <c r="V41" s="11">
         <v>41</v>
       </c>
-      <c r="W41" s="12">
+      <c r="W41" s="11">
         <v>41</v>
       </c>
-      <c r="X41" s="12">
+      <c r="X41" s="11">
         <v>41</v>
       </c>
-      <c r="Y41" s="12">
+      <c r="Y41" s="11">
         <v>41</v>
       </c>
-      <c r="Z41" s="12">
+      <c r="Z41" s="11">
         <v>41</v>
       </c>
-      <c r="AA41" s="12">
+      <c r="AA41" s="11">
         <v>41</v>
       </c>
-      <c r="AB41" s="12">
+      <c r="AB41" s="11">
         <v>41</v>
       </c>
-      <c r="AC41" s="12">
+      <c r="AC41" s="11">
         <v>41</v>
       </c>
-      <c r="AD41" s="12">
+      <c r="AD41" s="11">
         <v>43</v>
       </c>
-      <c r="AE41" s="12">
+      <c r="AE41" s="11">
         <v>43</v>
       </c>
-      <c r="AF41" s="12">
+      <c r="AF41" s="11">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>6</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>13</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="11">
         <v>25</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="11">
         <v>47</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="11">
         <v>66</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="11">
         <v>149</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="11">
         <v>201</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <v>264</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="11">
         <v>551</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="11">
         <v>691</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="11">
         <v>709</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="11">
         <v>720</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="11">
         <v>720</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="11">
         <v>763</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="11">
         <v>801</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="Q42" s="11">
         <v>801</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R42" s="11">
         <v>801</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="11">
         <v>801</v>
       </c>
-      <c r="T42" s="12">
+      <c r="T42" s="11">
         <v>801</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="11">
         <v>801</v>
       </c>
-      <c r="V42" s="12">
+      <c r="V42" s="11">
         <v>801</v>
       </c>
-      <c r="W42" s="12">
+      <c r="W42" s="11">
         <v>801</v>
       </c>
-      <c r="X42" s="12">
+      <c r="X42" s="11">
         <v>801</v>
       </c>
-      <c r="Y42" s="12">
+      <c r="Y42" s="11">
         <v>801</v>
       </c>
-      <c r="Z42" s="12">
+      <c r="Z42" s="11">
         <v>893</v>
       </c>
-      <c r="AA42" s="12">
+      <c r="AA42" s="11">
         <v>943</v>
       </c>
-      <c r="AB42" s="12">
+      <c r="AB42" s="11">
         <v>945</v>
       </c>
-      <c r="AC42" s="12">
+      <c r="AC42" s="11">
         <v>948</v>
       </c>
-      <c r="AD42" s="12">
+      <c r="AD42" s="11">
         <v>948</v>
       </c>
-      <c r="AE42" s="12">
+      <c r="AE42" s="11">
         <v>963</v>
       </c>
-      <c r="AF42" s="12">
+      <c r="AF42" s="11">
         <v>965</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="12">
-        <v>0</v>
-      </c>
-      <c r="C43" s="12">
-        <v>0</v>
-      </c>
-      <c r="D43" s="12">
-        <v>0</v>
-      </c>
-      <c r="E43" s="12">
-        <v>0</v>
-      </c>
-      <c r="F43" s="12">
-        <v>0</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0</v>
-      </c>
-      <c r="H43" s="12">
-        <v>0</v>
-      </c>
-      <c r="I43" s="12">
-        <v>0</v>
-      </c>
-      <c r="J43" s="12">
-        <v>0</v>
-      </c>
-      <c r="K43" s="12">
-        <v>0</v>
-      </c>
-      <c r="L43" s="12">
-        <v>0</v>
-      </c>
-      <c r="M43" s="12">
-        <v>0</v>
-      </c>
-      <c r="N43" s="12">
-        <v>0</v>
-      </c>
-      <c r="O43" s="12">
-        <v>0</v>
-      </c>
-      <c r="P43" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="12">
-        <v>0</v>
-      </c>
-      <c r="R43" s="12">
-        <v>0</v>
-      </c>
-      <c r="S43" s="12">
-        <v>0</v>
-      </c>
-      <c r="T43" s="12">
-        <v>0</v>
-      </c>
-      <c r="U43" s="12">
-        <v>0</v>
-      </c>
-      <c r="V43" s="12">
-        <v>0</v>
-      </c>
-      <c r="W43" s="12">
-        <v>0</v>
-      </c>
-      <c r="X43" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B43" s="11">
+        <v>0</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0</v>
+      </c>
+      <c r="O43" s="11">
+        <v>0</v>
+      </c>
+      <c r="P43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>0</v>
+      </c>
+      <c r="R43" s="11">
+        <v>0</v>
+      </c>
+      <c r="S43" s="11">
+        <v>0</v>
+      </c>
+      <c r="T43" s="11">
+        <v>0</v>
+      </c>
+      <c r="U43" s="11">
+        <v>0</v>
+      </c>
+      <c r="V43" s="11">
+        <v>0</v>
+      </c>
+      <c r="W43" s="11">
+        <v>0</v>
+      </c>
+      <c r="X43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="12">
-        <v>0</v>
-      </c>
-      <c r="C44" s="12">
-        <v>0</v>
-      </c>
-      <c r="D44" s="12">
-        <v>0</v>
-      </c>
-      <c r="E44" s="12">
-        <v>0</v>
-      </c>
-      <c r="F44" s="12">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-      <c r="H44" s="12">
-        <v>0</v>
-      </c>
-      <c r="I44" s="12">
-        <v>0</v>
-      </c>
-      <c r="J44" s="12">
-        <v>0</v>
-      </c>
-      <c r="K44" s="12">
-        <v>0</v>
-      </c>
-      <c r="L44" s="12">
-        <v>0</v>
-      </c>
-      <c r="M44" s="12">
-        <v>0</v>
-      </c>
-      <c r="N44" s="12">
-        <v>0</v>
-      </c>
-      <c r="O44" s="12">
-        <v>0</v>
-      </c>
-      <c r="P44" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="12">
-        <v>0</v>
-      </c>
-      <c r="R44" s="12">
-        <v>0</v>
-      </c>
-      <c r="S44" s="12">
-        <v>0</v>
-      </c>
-      <c r="T44" s="12">
-        <v>0</v>
-      </c>
-      <c r="U44" s="12">
-        <v>0</v>
-      </c>
-      <c r="V44" s="12">
-        <v>0</v>
-      </c>
-      <c r="W44" s="12">
-        <v>0</v>
-      </c>
-      <c r="X44" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B44" s="11">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11">
+        <v>0</v>
+      </c>
+      <c r="X44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="12">
-        <v>0</v>
-      </c>
-      <c r="C45" s="12">
-        <v>0</v>
-      </c>
-      <c r="D45" s="12">
-        <v>0</v>
-      </c>
-      <c r="E45" s="12">
-        <v>0</v>
-      </c>
-      <c r="F45" s="12">
-        <v>0</v>
-      </c>
-      <c r="G45" s="12">
-        <v>0</v>
-      </c>
-      <c r="H45" s="12">
-        <v>0</v>
-      </c>
-      <c r="I45" s="12">
-        <v>0</v>
-      </c>
-      <c r="J45" s="12">
-        <v>0</v>
-      </c>
-      <c r="K45" s="12">
-        <v>0</v>
-      </c>
-      <c r="L45" s="12">
-        <v>0</v>
-      </c>
-      <c r="M45" s="12">
-        <v>0</v>
-      </c>
-      <c r="N45" s="12">
-        <v>0</v>
-      </c>
-      <c r="O45" s="12">
-        <v>0</v>
-      </c>
-      <c r="P45" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="12">
-        <v>0</v>
-      </c>
-      <c r="R45" s="12">
-        <v>0</v>
-      </c>
-      <c r="S45" s="12">
-        <v>0</v>
-      </c>
-      <c r="T45" s="12">
-        <v>0</v>
-      </c>
-      <c r="U45" s="12">
-        <v>0</v>
-      </c>
-      <c r="V45" s="12">
-        <v>0</v>
-      </c>
-      <c r="W45" s="12">
-        <v>0</v>
-      </c>
-      <c r="X45" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B45" s="11">
+        <v>0</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11">
+        <v>0</v>
+      </c>
+      <c r="P45" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>0</v>
+      </c>
+      <c r="R45" s="11">
+        <v>0</v>
+      </c>
+      <c r="S45" s="11">
+        <v>0</v>
+      </c>
+      <c r="T45" s="11">
+        <v>0</v>
+      </c>
+      <c r="U45" s="11">
+        <v>0</v>
+      </c>
+      <c r="V45" s="11">
+        <v>0</v>
+      </c>
+      <c r="W45" s="11">
+        <v>0</v>
+      </c>
+      <c r="X45" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="12">
-        <v>0</v>
-      </c>
-      <c r="C46" s="12">
-        <v>0</v>
-      </c>
-      <c r="D46" s="12">
-        <v>0</v>
-      </c>
-      <c r="E46" s="12">
-        <v>0</v>
-      </c>
-      <c r="F46" s="12">
-        <v>0</v>
-      </c>
-      <c r="G46" s="12">
-        <v>0</v>
-      </c>
-      <c r="H46" s="12">
-        <v>0</v>
-      </c>
-      <c r="I46" s="12">
-        <v>0</v>
-      </c>
-      <c r="J46" s="12">
-        <v>0</v>
-      </c>
-      <c r="K46" s="12">
-        <v>0</v>
-      </c>
-      <c r="L46" s="12">
-        <v>0</v>
-      </c>
-      <c r="M46" s="12">
-        <v>0</v>
-      </c>
-      <c r="N46" s="12">
-        <v>0</v>
-      </c>
-      <c r="O46" s="12">
-        <v>0</v>
-      </c>
-      <c r="P46" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="12">
-        <v>0</v>
-      </c>
-      <c r="R46" s="12">
-        <v>0</v>
-      </c>
-      <c r="S46" s="12">
-        <v>0</v>
-      </c>
-      <c r="T46" s="12">
-        <v>0</v>
-      </c>
-      <c r="U46" s="12">
-        <v>0</v>
-      </c>
-      <c r="V46" s="12">
-        <v>0</v>
-      </c>
-      <c r="W46" s="12">
-        <v>0</v>
-      </c>
-      <c r="X46" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B46" s="11">
+        <v>0</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+      <c r="X46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="12">
-        <v>0</v>
-      </c>
-      <c r="C47" s="12">
-        <v>0</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0</v>
-      </c>
-      <c r="E47" s="12">
-        <v>0</v>
-      </c>
-      <c r="F47" s="12">
-        <v>0</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-      <c r="H47" s="12">
-        <v>0</v>
-      </c>
-      <c r="I47" s="12">
-        <v>0</v>
-      </c>
-      <c r="J47" s="12">
-        <v>0</v>
-      </c>
-      <c r="K47" s="12">
-        <v>0</v>
-      </c>
-      <c r="L47" s="12">
-        <v>0</v>
-      </c>
-      <c r="M47" s="12">
-        <v>0</v>
-      </c>
-      <c r="N47" s="12">
-        <v>0</v>
-      </c>
-      <c r="O47" s="12">
-        <v>0</v>
-      </c>
-      <c r="P47" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="12">
-        <v>0</v>
-      </c>
-      <c r="R47" s="12">
-        <v>0</v>
-      </c>
-      <c r="S47" s="12">
-        <v>0</v>
-      </c>
-      <c r="T47" s="12">
-        <v>0</v>
-      </c>
-      <c r="U47" s="12">
-        <v>0</v>
-      </c>
-      <c r="V47" s="12">
-        <v>0</v>
-      </c>
-      <c r="W47" s="12">
-        <v>0</v>
-      </c>
-      <c r="X47" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B47" s="11">
+        <v>0</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0</v>
+      </c>
+      <c r="O47" s="11">
+        <v>0</v>
+      </c>
+      <c r="P47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>0</v>
+      </c>
+      <c r="R47" s="11">
+        <v>0</v>
+      </c>
+      <c r="S47" s="11">
+        <v>0</v>
+      </c>
+      <c r="T47" s="11">
+        <v>0</v>
+      </c>
+      <c r="U47" s="11">
+        <v>0</v>
+      </c>
+      <c r="V47" s="11">
+        <v>0</v>
+      </c>
+      <c r="W47" s="11">
+        <v>0</v>
+      </c>
+      <c r="X47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>1119</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>1718</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <v>1718</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="11">
         <v>1718</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="11">
         <v>1718</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <v>1718</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="11">
         <v>1718</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="11">
         <v>1718</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="11">
         <v>1718</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="11">
         <v>1718</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="11">
         <v>1718</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="11">
         <v>1718</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N48" s="11">
         <v>1718</v>
       </c>
-      <c r="O48" s="12">
+      <c r="O48" s="11">
         <v>1718</v>
       </c>
-      <c r="P48" s="12">
+      <c r="P48" s="11">
         <v>1718</v>
       </c>
-      <c r="Q48" s="12">
+      <c r="Q48" s="11">
         <v>1718</v>
       </c>
-      <c r="R48" s="12">
+      <c r="R48" s="11">
         <v>1718</v>
       </c>
-      <c r="S48" s="12">
+      <c r="S48" s="11">
         <v>1718</v>
       </c>
-      <c r="T48" s="12">
+      <c r="T48" s="11">
         <v>1718</v>
       </c>
-      <c r="U48" s="12">
+      <c r="U48" s="11">
         <v>1718</v>
       </c>
-      <c r="V48" s="12">
+      <c r="V48" s="11">
         <v>1718</v>
       </c>
-      <c r="W48" s="12">
+      <c r="W48" s="11">
         <v>1718</v>
       </c>
-      <c r="X48" s="12">
+      <c r="X48" s="11">
         <v>1718</v>
       </c>
-      <c r="Y48" s="12">
+      <c r="Y48" s="11">
         <v>1718</v>
       </c>
-      <c r="Z48" s="12">
+      <c r="Z48" s="11">
         <v>1718</v>
       </c>
-      <c r="AA48" s="12">
+      <c r="AA48" s="11">
         <v>1718</v>
       </c>
-      <c r="AB48" s="12">
+      <c r="AB48" s="11">
         <v>1718</v>
       </c>
-      <c r="AC48" s="12">
+      <c r="AC48" s="11">
         <v>1718</v>
       </c>
-      <c r="AD48" s="12">
+      <c r="AD48" s="11">
         <v>1718</v>
       </c>
-      <c r="AE48" s="12">
+      <c r="AE48" s="11">
         <v>1718</v>
       </c>
-      <c r="AF48" s="12">
+      <c r="AF48" s="11">
         <v>1718</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>26</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>34</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <v>50</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="11">
         <v>61</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="11">
         <v>63</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="11">
         <v>64</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="11">
         <v>75</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="11">
         <v>88</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="11">
         <v>88</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="11">
         <v>88</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="11">
         <v>90</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="11">
         <v>93</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N49" s="11">
         <v>109</v>
       </c>
-      <c r="O49" s="12">
+      <c r="O49" s="11">
         <v>111</v>
       </c>
-      <c r="P49" s="12">
+      <c r="P49" s="11">
         <v>111</v>
       </c>
-      <c r="Q49" s="12">
+      <c r="Q49" s="11">
         <v>112</v>
       </c>
-      <c r="R49" s="12">
+      <c r="R49" s="11">
         <v>126</v>
       </c>
-      <c r="S49" s="12">
+      <c r="S49" s="11">
         <v>126</v>
       </c>
-      <c r="T49" s="12">
+      <c r="T49" s="11">
         <v>126</v>
       </c>
-      <c r="U49" s="12">
+      <c r="U49" s="11">
         <v>126</v>
       </c>
-      <c r="V49" s="12">
+      <c r="V49" s="11">
         <v>126</v>
       </c>
-      <c r="W49" s="12">
+      <c r="W49" s="11">
         <v>131</v>
       </c>
-      <c r="X49" s="12">
+      <c r="X49" s="11">
         <v>132</v>
       </c>
-      <c r="Y49" s="12">
+      <c r="Y49" s="11">
         <v>132</v>
       </c>
-      <c r="Z49" s="12">
+      <c r="Z49" s="11">
         <v>132</v>
       </c>
-      <c r="AA49" s="12">
+      <c r="AA49" s="11">
         <v>135</v>
       </c>
-      <c r="AB49" s="12">
+      <c r="AB49" s="11">
         <v>135</v>
       </c>
-      <c r="AC49" s="12">
+      <c r="AC49" s="11">
         <v>135</v>
       </c>
-      <c r="AD49" s="12">
+      <c r="AD49" s="11">
         <v>136</v>
       </c>
-      <c r="AE49" s="12">
+      <c r="AE49" s="11">
         <v>136</v>
       </c>
-      <c r="AF49" s="12">
+      <c r="AF49" s="11">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="12">
-        <v>0</v>
-      </c>
-      <c r="C50" s="12">
-        <v>0</v>
-      </c>
-      <c r="D50" s="12">
-        <v>0</v>
-      </c>
-      <c r="E50" s="12">
-        <v>0</v>
-      </c>
-      <c r="F50" s="12">
-        <v>0</v>
-      </c>
-      <c r="G50" s="12">
-        <v>0</v>
-      </c>
-      <c r="H50" s="12">
-        <v>0</v>
-      </c>
-      <c r="I50" s="12">
-        <v>0</v>
-      </c>
-      <c r="J50" s="12">
-        <v>0</v>
-      </c>
-      <c r="K50" s="12">
-        <v>0</v>
-      </c>
-      <c r="L50" s="12">
-        <v>0</v>
-      </c>
-      <c r="M50" s="12">
-        <v>0</v>
-      </c>
-      <c r="N50" s="12">
-        <v>0</v>
-      </c>
-      <c r="O50" s="12">
-        <v>0</v>
-      </c>
-      <c r="P50" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="12">
-        <v>0</v>
-      </c>
-      <c r="R50" s="12">
-        <v>0</v>
-      </c>
-      <c r="S50" s="12">
-        <v>0</v>
-      </c>
-      <c r="T50" s="12">
-        <v>0</v>
-      </c>
-      <c r="U50" s="12">
-        <v>0</v>
-      </c>
-      <c r="V50" s="12">
-        <v>0</v>
-      </c>
-      <c r="W50" s="12">
-        <v>0</v>
-      </c>
-      <c r="X50" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B50" s="11">
+        <v>0</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0</v>
+      </c>
+      <c r="O50" s="11">
+        <v>0</v>
+      </c>
+      <c r="P50" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>0</v>
+      </c>
+      <c r="R50" s="11">
+        <v>0</v>
+      </c>
+      <c r="S50" s="11">
+        <v>0</v>
+      </c>
+      <c r="T50" s="11">
+        <v>0</v>
+      </c>
+      <c r="U50" s="11">
+        <v>0</v>
+      </c>
+      <c r="V50" s="11">
+        <v>0</v>
+      </c>
+      <c r="W50" s="11">
+        <v>0</v>
+      </c>
+      <c r="X50" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="12">
-        <v>0</v>
-      </c>
-      <c r="C51" s="12">
-        <v>0</v>
-      </c>
-      <c r="D51" s="12">
-        <v>0</v>
-      </c>
-      <c r="E51" s="12">
-        <v>0</v>
-      </c>
-      <c r="F51" s="12">
-        <v>0</v>
-      </c>
-      <c r="G51" s="12">
-        <v>0</v>
-      </c>
-      <c r="H51" s="12">
-        <v>0</v>
-      </c>
-      <c r="I51" s="12">
-        <v>0</v>
-      </c>
-      <c r="J51" s="12">
-        <v>0</v>
-      </c>
-      <c r="K51" s="12">
-        <v>0</v>
-      </c>
-      <c r="L51" s="12">
-        <v>0</v>
-      </c>
-      <c r="M51" s="12">
-        <v>0</v>
-      </c>
-      <c r="N51" s="12">
-        <v>0</v>
-      </c>
-      <c r="O51" s="12">
-        <v>0</v>
-      </c>
-      <c r="P51" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="12">
-        <v>0</v>
-      </c>
-      <c r="R51" s="12">
-        <v>0</v>
-      </c>
-      <c r="S51" s="12">
-        <v>0</v>
-      </c>
-      <c r="T51" s="12">
-        <v>0</v>
-      </c>
-      <c r="U51" s="12">
-        <v>0</v>
-      </c>
-      <c r="V51" s="12">
-        <v>0</v>
-      </c>
-      <c r="W51" s="12">
-        <v>0</v>
-      </c>
-      <c r="X51" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B51" s="11">
+        <v>0</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0</v>
+      </c>
+      <c r="P51" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>0</v>
+      </c>
+      <c r="R51" s="11">
+        <v>0</v>
+      </c>
+      <c r="S51" s="11">
+        <v>0</v>
+      </c>
+      <c r="T51" s="11">
+        <v>0</v>
+      </c>
+      <c r="U51" s="11">
+        <v>0</v>
+      </c>
+      <c r="V51" s="11">
+        <v>0</v>
+      </c>
+      <c r="W51" s="11">
+        <v>0</v>
+      </c>
+      <c r="X51" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="12">
-        <v>0</v>
-      </c>
-      <c r="C52" s="12">
-        <v>0</v>
-      </c>
-      <c r="D52" s="12">
-        <v>0</v>
-      </c>
-      <c r="E52" s="12">
-        <v>0</v>
-      </c>
-      <c r="F52" s="12">
-        <v>0</v>
-      </c>
-      <c r="G52" s="12">
-        <v>0</v>
-      </c>
-      <c r="H52" s="12">
-        <v>0</v>
-      </c>
-      <c r="I52" s="12">
-        <v>0</v>
-      </c>
-      <c r="J52" s="12">
-        <v>0</v>
-      </c>
-      <c r="K52" s="12">
-        <v>0</v>
-      </c>
-      <c r="L52" s="12">
-        <v>0</v>
-      </c>
-      <c r="M52" s="12">
-        <v>0</v>
-      </c>
-      <c r="N52" s="12">
-        <v>0</v>
-      </c>
-      <c r="O52" s="12">
-        <v>0</v>
-      </c>
-      <c r="P52" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="12">
-        <v>0</v>
-      </c>
-      <c r="R52" s="12">
-        <v>0</v>
-      </c>
-      <c r="S52" s="12">
-        <v>0</v>
-      </c>
-      <c r="T52" s="12">
-        <v>0</v>
-      </c>
-      <c r="U52" s="12">
-        <v>0</v>
-      </c>
-      <c r="V52" s="12">
-        <v>0</v>
-      </c>
-      <c r="W52" s="12">
-        <v>0</v>
-      </c>
-      <c r="X52" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B52" s="11">
+        <v>0</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11">
+        <v>0</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0</v>
+      </c>
+      <c r="O52" s="11">
+        <v>0</v>
+      </c>
+      <c r="P52" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>0</v>
+      </c>
+      <c r="R52" s="11">
+        <v>0</v>
+      </c>
+      <c r="S52" s="11">
+        <v>0</v>
+      </c>
+      <c r="T52" s="11">
+        <v>0</v>
+      </c>
+      <c r="U52" s="11">
+        <v>0</v>
+      </c>
+      <c r="V52" s="11">
+        <v>0</v>
+      </c>
+      <c r="W52" s="11">
+        <v>0</v>
+      </c>
+      <c r="X52" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="12">
-        <v>0</v>
-      </c>
-      <c r="C53" s="12">
-        <v>0</v>
-      </c>
-      <c r="D53" s="12">
-        <v>0</v>
-      </c>
-      <c r="E53" s="12">
-        <v>0</v>
-      </c>
-      <c r="F53" s="12">
-        <v>0</v>
-      </c>
-      <c r="G53" s="12">
-        <v>0</v>
-      </c>
-      <c r="H53" s="12">
-        <v>0</v>
-      </c>
-      <c r="I53" s="12">
-        <v>0</v>
-      </c>
-      <c r="J53" s="12">
-        <v>0</v>
-      </c>
-      <c r="K53" s="12">
-        <v>0</v>
-      </c>
-      <c r="L53" s="12">
-        <v>0</v>
-      </c>
-      <c r="M53" s="12">
-        <v>0</v>
-      </c>
-      <c r="N53" s="12">
-        <v>0</v>
-      </c>
-      <c r="O53" s="12">
-        <v>0</v>
-      </c>
-      <c r="P53" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="12">
-        <v>0</v>
-      </c>
-      <c r="R53" s="12">
-        <v>0</v>
-      </c>
-      <c r="S53" s="12">
-        <v>0</v>
-      </c>
-      <c r="T53" s="12">
-        <v>0</v>
-      </c>
-      <c r="U53" s="12">
-        <v>0</v>
-      </c>
-      <c r="V53" s="12">
-        <v>0</v>
-      </c>
-      <c r="W53" s="12">
-        <v>0</v>
-      </c>
-      <c r="X53" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B53" s="11">
+        <v>0</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11">
+        <v>0</v>
+      </c>
+      <c r="O53" s="11">
+        <v>0</v>
+      </c>
+      <c r="P53" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>0</v>
+      </c>
+      <c r="R53" s="11">
+        <v>0</v>
+      </c>
+      <c r="S53" s="11">
+        <v>0</v>
+      </c>
+      <c r="T53" s="11">
+        <v>0</v>
+      </c>
+      <c r="U53" s="11">
+        <v>0</v>
+      </c>
+      <c r="V53" s="11">
+        <v>0</v>
+      </c>
+      <c r="W53" s="11">
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="12">
-        <v>0</v>
-      </c>
-      <c r="C54" s="12">
-        <v>0</v>
-      </c>
-      <c r="D54" s="12">
-        <v>0</v>
-      </c>
-      <c r="E54" s="12">
-        <v>0</v>
-      </c>
-      <c r="F54" s="12">
-        <v>0</v>
-      </c>
-      <c r="G54" s="12">
-        <v>0</v>
-      </c>
-      <c r="H54" s="12">
-        <v>0</v>
-      </c>
-      <c r="I54" s="12">
-        <v>0</v>
-      </c>
-      <c r="J54" s="12">
-        <v>0</v>
-      </c>
-      <c r="K54" s="12">
-        <v>0</v>
-      </c>
-      <c r="L54" s="12">
-        <v>0</v>
-      </c>
-      <c r="M54" s="12">
-        <v>0</v>
-      </c>
-      <c r="N54" s="12">
-        <v>0</v>
-      </c>
-      <c r="O54" s="12">
-        <v>0</v>
-      </c>
-      <c r="P54" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="12">
-        <v>0</v>
-      </c>
-      <c r="R54" s="12">
-        <v>0</v>
-      </c>
-      <c r="S54" s="12">
-        <v>0</v>
-      </c>
-      <c r="T54" s="12">
-        <v>0</v>
-      </c>
-      <c r="U54" s="12">
-        <v>0</v>
-      </c>
-      <c r="V54" s="12">
-        <v>0</v>
-      </c>
-      <c r="W54" s="12">
-        <v>0</v>
-      </c>
-      <c r="X54" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A56" s="11" t="s">
+      <c r="B54" s="11">
+        <v>0</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+      <c r="O54" s="11">
+        <v>0</v>
+      </c>
+      <c r="P54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>0</v>
+      </c>
+      <c r="R54" s="11">
+        <v>0</v>
+      </c>
+      <c r="S54" s="11">
+        <v>0</v>
+      </c>
+      <c r="T54" s="11">
+        <v>0</v>
+      </c>
+      <c r="U54" s="11">
+        <v>0</v>
+      </c>
+      <c r="V54" s="11">
+        <v>0</v>
+      </c>
+      <c r="W54" s="11">
+        <v>0</v>
+      </c>
+      <c r="X54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AH56" s="13" t="s">
+      <c r="AH56" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AI56" s="13" t="s">
+      <c r="AI56" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="13">
         <v>9030</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>4386</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>9804</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="11">
         <v>8772</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <v>6966</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <v>19866</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <v>6966</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="11">
         <v>6450</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="11">
         <v>11094</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="11">
         <v>11094</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="11">
         <v>4902</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M57" s="11">
         <v>774</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="11">
         <v>2580</v>
       </c>
-      <c r="O57" s="12">
+      <c r="O57" s="11">
         <v>774</v>
       </c>
-      <c r="P57" s="12">
+      <c r="P57" s="11">
         <v>5160</v>
       </c>
-      <c r="Q57" s="12">
+      <c r="Q57" s="11">
         <v>1806</v>
       </c>
-      <c r="R57" s="12">
+      <c r="R57" s="11">
         <v>1032</v>
       </c>
-      <c r="S57" s="12">
+      <c r="S57" s="11">
         <v>516</v>
       </c>
-      <c r="T57" s="12">
+      <c r="T57" s="11">
         <v>1290</v>
       </c>
-      <c r="U57" s="12">
+      <c r="U57" s="11">
         <v>258</v>
       </c>
-      <c r="V57" s="12">
+      <c r="V57" s="11">
         <v>1806</v>
       </c>
-      <c r="W57" s="12">
+      <c r="W57" s="11">
         <v>258</v>
       </c>
-      <c r="X57" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="12">
+      <c r="X57" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="11">
         <v>2580</v>
       </c>
-      <c r="AB57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="9">
+      <c r="AB57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="8">
         <v>118164</v>
       </c>
-      <c r="AI57" s="9">
+      <c r="AI57" s="8">
         <v>-67.112999999997555</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>770</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="11">
         <v>154</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="11">
         <v>2310</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="11">
         <v>7392</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <v>9702</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="11">
         <v>6930</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>2926</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="11">
         <v>2156</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="11">
         <v>770</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K58" s="11">
         <v>1386</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="11">
         <v>616</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M58" s="11">
         <v>1078</v>
       </c>
-      <c r="N58" s="12">
+      <c r="N58" s="11">
         <v>770</v>
       </c>
-      <c r="O58" s="12">
+      <c r="O58" s="11">
         <v>924</v>
       </c>
-      <c r="P58" s="12">
+      <c r="P58" s="11">
         <v>462</v>
       </c>
-      <c r="Q58" s="12">
+      <c r="Q58" s="11">
         <v>1848</v>
       </c>
-      <c r="R58" s="12">
+      <c r="R58" s="11">
         <v>770</v>
       </c>
-      <c r="S58" s="12">
+      <c r="S58" s="11">
         <v>1232</v>
       </c>
-      <c r="T58" s="12">
-        <v>0</v>
-      </c>
-      <c r="U58" s="12">
-        <v>0</v>
-      </c>
-      <c r="V58" s="12">
+      <c r="T58" s="11">
+        <v>0</v>
+      </c>
+      <c r="U58" s="11">
+        <v>0</v>
+      </c>
+      <c r="V58" s="11">
         <v>616</v>
       </c>
-      <c r="W58" s="12">
-        <v>0</v>
-      </c>
-      <c r="X58" s="12">
+      <c r="W58" s="11">
+        <v>0</v>
+      </c>
+      <c r="X58" s="11">
         <v>462</v>
       </c>
-      <c r="Y58" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="12">
+      <c r="Y58" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="11">
         <v>770</v>
       </c>
-      <c r="AA58" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="12">
+      <c r="AA58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="11">
         <v>154</v>
       </c>
-      <c r="AE58" s="12">
+      <c r="AE58" s="11">
         <v>1386</v>
       </c>
-      <c r="AF58" s="12">
+      <c r="AF58" s="11">
         <v>308</v>
       </c>
-      <c r="AH58" s="9">
+      <c r="AH58" s="8">
         <v>45892</v>
       </c>
-      <c r="AI58" s="9">
+      <c r="AI58" s="8">
         <v>-94.897999999993772</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>1500</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>1000</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>500</v>
       </c>
-      <c r="E59" s="12">
-        <v>0</v>
-      </c>
-      <c r="F59" s="12">
-        <v>0</v>
-      </c>
-      <c r="G59" s="12">
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11">
         <v>1500</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>1000</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="11">
         <v>2000</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="11">
         <v>5000</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59" s="11">
         <v>1000</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="11">
         <v>1000</v>
       </c>
-      <c r="M59" s="12">
-        <v>0</v>
-      </c>
-      <c r="N59" s="12">
-        <v>0</v>
-      </c>
-      <c r="O59" s="12">
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+      <c r="O59" s="11">
         <v>5000</v>
       </c>
-      <c r="P59" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="12">
-        <v>0</v>
-      </c>
-      <c r="R59" s="12">
-        <v>0</v>
-      </c>
-      <c r="S59" s="12">
+      <c r="P59" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>0</v>
+      </c>
+      <c r="R59" s="11">
+        <v>0</v>
+      </c>
+      <c r="S59" s="11">
         <v>1000</v>
       </c>
-      <c r="T59" s="12">
-        <v>0</v>
-      </c>
-      <c r="U59" s="12">
-        <v>0</v>
-      </c>
-      <c r="V59" s="12">
-        <v>0</v>
-      </c>
-      <c r="W59" s="12">
-        <v>0</v>
-      </c>
-      <c r="X59" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="12">
+      <c r="T59" s="11">
+        <v>0</v>
+      </c>
+      <c r="U59" s="11">
+        <v>0</v>
+      </c>
+      <c r="V59" s="11">
+        <v>0</v>
+      </c>
+      <c r="W59" s="11">
+        <v>0</v>
+      </c>
+      <c r="X59" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="11">
         <v>1000</v>
       </c>
-      <c r="AE59" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="9">
+      <c r="AE59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="8">
         <v>21500</v>
       </c>
-      <c r="AI59" s="9">
+      <c r="AI59" s="8">
         <v>-320.40200000000186</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <v>6</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <v>7</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="11">
         <v>12</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="11">
         <v>22</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="11">
         <v>19</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="11">
         <v>83</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="11">
         <v>52</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="11">
         <v>63</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="11">
         <v>287</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="11">
         <v>140</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60" s="11">
         <v>18</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M60" s="11">
         <v>11</v>
       </c>
-      <c r="N60" s="12">
-        <v>0</v>
-      </c>
-      <c r="O60" s="12">
+      <c r="N60" s="11">
+        <v>0</v>
+      </c>
+      <c r="O60" s="11">
         <v>43</v>
       </c>
-      <c r="P60" s="12">
+      <c r="P60" s="11">
         <v>38</v>
       </c>
-      <c r="Q60" s="12">
-        <v>0</v>
-      </c>
-      <c r="R60" s="12">
-        <v>0</v>
-      </c>
-      <c r="S60" s="12">
-        <v>0</v>
-      </c>
-      <c r="T60" s="12">
-        <v>0</v>
-      </c>
-      <c r="U60" s="12">
-        <v>0</v>
-      </c>
-      <c r="V60" s="12">
-        <v>0</v>
-      </c>
-      <c r="W60" s="12">
-        <v>0</v>
-      </c>
-      <c r="X60" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="12">
+      <c r="Q60" s="11">
+        <v>0</v>
+      </c>
+      <c r="R60" s="11">
+        <v>0</v>
+      </c>
+      <c r="S60" s="11">
+        <v>0</v>
+      </c>
+      <c r="T60" s="11">
+        <v>0</v>
+      </c>
+      <c r="U60" s="11">
+        <v>0</v>
+      </c>
+      <c r="V60" s="11">
+        <v>0</v>
+      </c>
+      <c r="W60" s="11">
+        <v>0</v>
+      </c>
+      <c r="X60" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="11">
         <v>92</v>
       </c>
-      <c r="AA60" s="12">
+      <c r="AA60" s="11">
         <v>50</v>
       </c>
-      <c r="AB60" s="12">
+      <c r="AB60" s="11">
         <v>2</v>
       </c>
-      <c r="AC60" s="12">
+      <c r="AC60" s="11">
         <v>3</v>
       </c>
-      <c r="AD60" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="12">
+      <c r="AD60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="11">
         <v>15</v>
       </c>
-      <c r="AF60" s="12">
+      <c r="AF60" s="11">
         <v>2</v>
       </c>
-      <c r="AH60" s="9">
+      <c r="AH60" s="8">
         <v>965</v>
       </c>
-      <c r="AI60" s="9">
+      <c r="AI60" s="8">
         <v>-0.59999999999990905</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="14">
-        <v>0</v>
-      </c>
-      <c r="C61" s="12">
-        <v>0</v>
-      </c>
-      <c r="D61" s="12">
-        <v>0</v>
-      </c>
-      <c r="E61" s="12">
-        <v>0</v>
-      </c>
-      <c r="F61" s="12">
-        <v>0</v>
-      </c>
-      <c r="G61" s="12">
-        <v>0</v>
-      </c>
-      <c r="H61" s="12">
-        <v>0</v>
-      </c>
-      <c r="I61" s="12">
-        <v>0</v>
-      </c>
-      <c r="J61" s="12">
-        <v>0</v>
-      </c>
-      <c r="K61" s="12">
-        <v>0</v>
-      </c>
-      <c r="L61" s="12">
-        <v>0</v>
-      </c>
-      <c r="M61" s="12">
-        <v>0</v>
-      </c>
-      <c r="N61" s="12">
-        <v>0</v>
-      </c>
-      <c r="O61" s="12">
-        <v>0</v>
-      </c>
-      <c r="P61" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="12">
-        <v>0</v>
-      </c>
-      <c r="R61" s="12">
-        <v>0</v>
-      </c>
-      <c r="S61" s="12">
-        <v>0</v>
-      </c>
-      <c r="T61" s="12">
-        <v>0</v>
-      </c>
-      <c r="U61" s="12">
-        <v>0</v>
-      </c>
-      <c r="V61" s="12">
-        <v>0</v>
-      </c>
-      <c r="W61" s="12">
-        <v>0</v>
-      </c>
-      <c r="X61" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B61" s="13">
+        <v>0</v>
+      </c>
+      <c r="C61" s="11">
+        <v>0</v>
+      </c>
+      <c r="D61" s="11">
+        <v>0</v>
+      </c>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0</v>
+      </c>
+      <c r="K61" s="11">
+        <v>0</v>
+      </c>
+      <c r="L61" s="11">
+        <v>0</v>
+      </c>
+      <c r="M61" s="11">
+        <v>0</v>
+      </c>
+      <c r="N61" s="11">
+        <v>0</v>
+      </c>
+      <c r="O61" s="11">
+        <v>0</v>
+      </c>
+      <c r="P61" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>0</v>
+      </c>
+      <c r="R61" s="11">
+        <v>0</v>
+      </c>
+      <c r="S61" s="11">
+        <v>0</v>
+      </c>
+      <c r="T61" s="11">
+        <v>0</v>
+      </c>
+      <c r="U61" s="11">
+        <v>0</v>
+      </c>
+      <c r="V61" s="11">
+        <v>0</v>
+      </c>
+      <c r="W61" s="11">
+        <v>0</v>
+      </c>
+      <c r="X61" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="14">
-        <v>0</v>
-      </c>
-      <c r="C62" s="12">
-        <v>0</v>
-      </c>
-      <c r="D62" s="12">
-        <v>0</v>
-      </c>
-      <c r="E62" s="12">
-        <v>0</v>
-      </c>
-      <c r="F62" s="12">
-        <v>0</v>
-      </c>
-      <c r="G62" s="12">
-        <v>0</v>
-      </c>
-      <c r="H62" s="12">
-        <v>0</v>
-      </c>
-      <c r="I62" s="12">
-        <v>0</v>
-      </c>
-      <c r="J62" s="12">
-        <v>0</v>
-      </c>
-      <c r="K62" s="12">
-        <v>0</v>
-      </c>
-      <c r="L62" s="12">
-        <v>0</v>
-      </c>
-      <c r="M62" s="12">
-        <v>0</v>
-      </c>
-      <c r="N62" s="12">
-        <v>0</v>
-      </c>
-      <c r="O62" s="12">
-        <v>0</v>
-      </c>
-      <c r="P62" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="12">
-        <v>0</v>
-      </c>
-      <c r="R62" s="12">
-        <v>0</v>
-      </c>
-      <c r="S62" s="12">
-        <v>0</v>
-      </c>
-      <c r="T62" s="12">
-        <v>0</v>
-      </c>
-      <c r="U62" s="12">
-        <v>0</v>
-      </c>
-      <c r="V62" s="12">
-        <v>0</v>
-      </c>
-      <c r="W62" s="12">
-        <v>0</v>
-      </c>
-      <c r="X62" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B62" s="13">
+        <v>0</v>
+      </c>
+      <c r="C62" s="11">
+        <v>0</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11">
+        <v>0</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>0</v>
+      </c>
+      <c r="J62" s="11">
+        <v>0</v>
+      </c>
+      <c r="K62" s="11">
+        <v>0</v>
+      </c>
+      <c r="L62" s="11">
+        <v>0</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0</v>
+      </c>
+      <c r="N62" s="11">
+        <v>0</v>
+      </c>
+      <c r="O62" s="11">
+        <v>0</v>
+      </c>
+      <c r="P62" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>0</v>
+      </c>
+      <c r="R62" s="11">
+        <v>0</v>
+      </c>
+      <c r="S62" s="11">
+        <v>0</v>
+      </c>
+      <c r="T62" s="11">
+        <v>0</v>
+      </c>
+      <c r="U62" s="11">
+        <v>0</v>
+      </c>
+      <c r="V62" s="11">
+        <v>0</v>
+      </c>
+      <c r="W62" s="11">
+        <v>0</v>
+      </c>
+      <c r="X62" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="14">
-        <v>0</v>
-      </c>
-      <c r="C63" s="12">
-        <v>0</v>
-      </c>
-      <c r="D63" s="12">
-        <v>0</v>
-      </c>
-      <c r="E63" s="12">
-        <v>0</v>
-      </c>
-      <c r="F63" s="12">
-        <v>0</v>
-      </c>
-      <c r="G63" s="12">
-        <v>0</v>
-      </c>
-      <c r="H63" s="12">
-        <v>0</v>
-      </c>
-      <c r="I63" s="12">
-        <v>0</v>
-      </c>
-      <c r="J63" s="12">
-        <v>0</v>
-      </c>
-      <c r="K63" s="12">
-        <v>0</v>
-      </c>
-      <c r="L63" s="12">
-        <v>0</v>
-      </c>
-      <c r="M63" s="12">
-        <v>0</v>
-      </c>
-      <c r="N63" s="12">
-        <v>0</v>
-      </c>
-      <c r="O63" s="12">
-        <v>0</v>
-      </c>
-      <c r="P63" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="12">
-        <v>0</v>
-      </c>
-      <c r="R63" s="12">
-        <v>0</v>
-      </c>
-      <c r="S63" s="12">
-        <v>0</v>
-      </c>
-      <c r="T63" s="12">
-        <v>0</v>
-      </c>
-      <c r="U63" s="12">
-        <v>0</v>
-      </c>
-      <c r="V63" s="12">
-        <v>0</v>
-      </c>
-      <c r="W63" s="12">
-        <v>0</v>
-      </c>
-      <c r="X63" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH63" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI63" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B63" s="13">
+        <v>0</v>
+      </c>
+      <c r="C63" s="11">
+        <v>0</v>
+      </c>
+      <c r="D63" s="11">
+        <v>0</v>
+      </c>
+      <c r="E63" s="11">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0</v>
+      </c>
+      <c r="J63" s="11">
+        <v>0</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0</v>
+      </c>
+      <c r="L63" s="11">
+        <v>0</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0</v>
+      </c>
+      <c r="N63" s="11">
+        <v>0</v>
+      </c>
+      <c r="O63" s="11">
+        <v>0</v>
+      </c>
+      <c r="P63" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="11">
+        <v>0</v>
+      </c>
+      <c r="R63" s="11">
+        <v>0</v>
+      </c>
+      <c r="S63" s="11">
+        <v>0</v>
+      </c>
+      <c r="T63" s="11">
+        <v>0</v>
+      </c>
+      <c r="U63" s="11">
+        <v>0</v>
+      </c>
+      <c r="V63" s="11">
+        <v>0</v>
+      </c>
+      <c r="W63" s="11">
+        <v>0</v>
+      </c>
+      <c r="X63" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="14">
-        <v>0</v>
-      </c>
-      <c r="C64" s="12">
-        <v>0</v>
-      </c>
-      <c r="D64" s="12">
-        <v>0</v>
-      </c>
-      <c r="E64" s="12">
-        <v>0</v>
-      </c>
-      <c r="F64" s="12">
-        <v>0</v>
-      </c>
-      <c r="G64" s="12">
-        <v>0</v>
-      </c>
-      <c r="H64" s="12">
-        <v>0</v>
-      </c>
-      <c r="I64" s="12">
-        <v>0</v>
-      </c>
-      <c r="J64" s="12">
-        <v>0</v>
-      </c>
-      <c r="K64" s="12">
-        <v>0</v>
-      </c>
-      <c r="L64" s="12">
-        <v>0</v>
-      </c>
-      <c r="M64" s="12">
-        <v>0</v>
-      </c>
-      <c r="N64" s="12">
-        <v>0</v>
-      </c>
-      <c r="O64" s="12">
-        <v>0</v>
-      </c>
-      <c r="P64" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="12">
-        <v>0</v>
-      </c>
-      <c r="R64" s="12">
-        <v>0</v>
-      </c>
-      <c r="S64" s="12">
-        <v>0</v>
-      </c>
-      <c r="T64" s="12">
-        <v>0</v>
-      </c>
-      <c r="U64" s="12">
-        <v>0</v>
-      </c>
-      <c r="V64" s="12">
-        <v>0</v>
-      </c>
-      <c r="W64" s="12">
-        <v>0</v>
-      </c>
-      <c r="X64" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B64" s="13">
+        <v>0</v>
+      </c>
+      <c r="C64" s="11">
+        <v>0</v>
+      </c>
+      <c r="D64" s="11">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0</v>
+      </c>
+      <c r="J64" s="11">
+        <v>0</v>
+      </c>
+      <c r="K64" s="11">
+        <v>0</v>
+      </c>
+      <c r="L64" s="11">
+        <v>0</v>
+      </c>
+      <c r="M64" s="11">
+        <v>0</v>
+      </c>
+      <c r="N64" s="11">
+        <v>0</v>
+      </c>
+      <c r="O64" s="11">
+        <v>0</v>
+      </c>
+      <c r="P64" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>0</v>
+      </c>
+      <c r="R64" s="11">
+        <v>0</v>
+      </c>
+      <c r="S64" s="11">
+        <v>0</v>
+      </c>
+      <c r="T64" s="11">
+        <v>0</v>
+      </c>
+      <c r="U64" s="11">
+        <v>0</v>
+      </c>
+      <c r="V64" s="11">
+        <v>0</v>
+      </c>
+      <c r="W64" s="11">
+        <v>0</v>
+      </c>
+      <c r="X64" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="14">
-        <v>0</v>
-      </c>
-      <c r="C65" s="12">
-        <v>0</v>
-      </c>
-      <c r="D65" s="12">
-        <v>0</v>
-      </c>
-      <c r="E65" s="12">
-        <v>0</v>
-      </c>
-      <c r="F65" s="12">
-        <v>0</v>
-      </c>
-      <c r="G65" s="12">
-        <v>0</v>
-      </c>
-      <c r="H65" s="12">
-        <v>0</v>
-      </c>
-      <c r="I65" s="12">
-        <v>0</v>
-      </c>
-      <c r="J65" s="12">
-        <v>0</v>
-      </c>
-      <c r="K65" s="12">
-        <v>0</v>
-      </c>
-      <c r="L65" s="12">
-        <v>0</v>
-      </c>
-      <c r="M65" s="12">
-        <v>0</v>
-      </c>
-      <c r="N65" s="12">
-        <v>0</v>
-      </c>
-      <c r="O65" s="12">
-        <v>0</v>
-      </c>
-      <c r="P65" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="12">
-        <v>0</v>
-      </c>
-      <c r="R65" s="12">
-        <v>0</v>
-      </c>
-      <c r="S65" s="12">
-        <v>0</v>
-      </c>
-      <c r="T65" s="12">
-        <v>0</v>
-      </c>
-      <c r="U65" s="12">
-        <v>0</v>
-      </c>
-      <c r="V65" s="12">
-        <v>0</v>
-      </c>
-      <c r="W65" s="12">
-        <v>0</v>
-      </c>
-      <c r="X65" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B65" s="13">
+        <v>0</v>
+      </c>
+      <c r="C65" s="11">
+        <v>0</v>
+      </c>
+      <c r="D65" s="11">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>0</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0</v>
+      </c>
+      <c r="L65" s="11">
+        <v>0</v>
+      </c>
+      <c r="M65" s="11">
+        <v>0</v>
+      </c>
+      <c r="N65" s="11">
+        <v>0</v>
+      </c>
+      <c r="O65" s="11">
+        <v>0</v>
+      </c>
+      <c r="P65" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="11">
+        <v>0</v>
+      </c>
+      <c r="R65" s="11">
+        <v>0</v>
+      </c>
+      <c r="S65" s="11">
+        <v>0</v>
+      </c>
+      <c r="T65" s="11">
+        <v>0</v>
+      </c>
+      <c r="U65" s="11">
+        <v>0</v>
+      </c>
+      <c r="V65" s="11">
+        <v>0</v>
+      </c>
+      <c r="W65" s="11">
+        <v>0</v>
+      </c>
+      <c r="X65" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="13">
         <v>1119</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="11">
         <v>599</v>
       </c>
-      <c r="D66" s="12">
-        <v>0</v>
-      </c>
-      <c r="E66" s="12">
-        <v>0</v>
-      </c>
-      <c r="F66" s="12">
-        <v>0</v>
-      </c>
-      <c r="G66" s="12">
-        <v>0</v>
-      </c>
-      <c r="H66" s="12">
-        <v>0</v>
-      </c>
-      <c r="I66" s="12">
-        <v>0</v>
-      </c>
-      <c r="J66" s="12">
-        <v>0</v>
-      </c>
-      <c r="K66" s="12">
-        <v>0</v>
-      </c>
-      <c r="L66" s="12">
-        <v>0</v>
-      </c>
-      <c r="M66" s="12">
-        <v>0</v>
-      </c>
-      <c r="N66" s="12">
-        <v>0</v>
-      </c>
-      <c r="O66" s="12">
-        <v>0</v>
-      </c>
-      <c r="P66" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="12">
-        <v>0</v>
-      </c>
-      <c r="R66" s="12">
-        <v>0</v>
-      </c>
-      <c r="S66" s="12">
-        <v>0</v>
-      </c>
-      <c r="T66" s="12">
-        <v>0</v>
-      </c>
-      <c r="U66" s="12">
-        <v>0</v>
-      </c>
-      <c r="V66" s="12">
-        <v>0</v>
-      </c>
-      <c r="W66" s="12">
-        <v>0</v>
-      </c>
-      <c r="X66" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="9">
+      <c r="D66" s="11">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
+        <v>0</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+      <c r="O66" s="11">
+        <v>0</v>
+      </c>
+      <c r="P66" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="11">
+        <v>0</v>
+      </c>
+      <c r="R66" s="11">
+        <v>0</v>
+      </c>
+      <c r="S66" s="11">
+        <v>0</v>
+      </c>
+      <c r="T66" s="11">
+        <v>0</v>
+      </c>
+      <c r="U66" s="11">
+        <v>0</v>
+      </c>
+      <c r="V66" s="11">
+        <v>0</v>
+      </c>
+      <c r="W66" s="11">
+        <v>0</v>
+      </c>
+      <c r="X66" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="8">
         <v>1718</v>
       </c>
-      <c r="AI66" s="9">
+      <c r="AI66" s="8">
         <v>-0.1999999999998181</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <v>1300</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="11">
         <v>400</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="11">
         <v>800</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="11">
         <v>550</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="11">
         <v>100</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="11">
         <v>50</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="11">
         <v>550</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="11">
         <v>650</v>
       </c>
-      <c r="J67" s="12">
-        <v>0</v>
-      </c>
-      <c r="K67" s="12">
-        <v>0</v>
-      </c>
-      <c r="L67" s="12">
+      <c r="J67" s="11">
+        <v>0</v>
+      </c>
+      <c r="K67" s="11">
+        <v>0</v>
+      </c>
+      <c r="L67" s="11">
         <v>100</v>
       </c>
-      <c r="M67" s="12">
+      <c r="M67" s="11">
         <v>150</v>
       </c>
-      <c r="N67" s="12">
+      <c r="N67" s="11">
         <v>800</v>
       </c>
-      <c r="O67" s="12">
+      <c r="O67" s="11">
         <v>100</v>
       </c>
-      <c r="P67" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="12">
+      <c r="P67" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="11">
         <v>50</v>
       </c>
-      <c r="R67" s="12">
+      <c r="R67" s="11">
         <v>700</v>
       </c>
-      <c r="S67" s="12">
-        <v>0</v>
-      </c>
-      <c r="T67" s="12">
-        <v>0</v>
-      </c>
-      <c r="U67" s="12">
-        <v>0</v>
-      </c>
-      <c r="V67" s="12">
-        <v>0</v>
-      </c>
-      <c r="W67" s="12">
+      <c r="S67" s="11">
+        <v>0</v>
+      </c>
+      <c r="T67" s="11">
+        <v>0</v>
+      </c>
+      <c r="U67" s="11">
+        <v>0</v>
+      </c>
+      <c r="V67" s="11">
+        <v>0</v>
+      </c>
+      <c r="W67" s="11">
         <v>250</v>
       </c>
-      <c r="X67" s="12">
+      <c r="X67" s="11">
         <v>50</v>
       </c>
-      <c r="Y67" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="12">
+      <c r="Y67" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="11">
         <v>150</v>
       </c>
-      <c r="AB67" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="12">
+      <c r="AB67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="11">
         <v>50</v>
       </c>
-      <c r="AE67" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH67" s="9">
+      <c r="AE67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="8">
         <v>6800</v>
       </c>
-      <c r="AI67" s="9">
+      <c r="AI67" s="8">
         <v>-45.999999999999091</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="14">
-        <v>0</v>
-      </c>
-      <c r="C68" s="12">
-        <v>0</v>
-      </c>
-      <c r="D68" s="12">
-        <v>0</v>
-      </c>
-      <c r="E68" s="12">
-        <v>0</v>
-      </c>
-      <c r="F68" s="12">
-        <v>0</v>
-      </c>
-      <c r="G68" s="12">
-        <v>0</v>
-      </c>
-      <c r="H68" s="12">
-        <v>0</v>
-      </c>
-      <c r="I68" s="12">
-        <v>0</v>
-      </c>
-      <c r="J68" s="12">
-        <v>0</v>
-      </c>
-      <c r="K68" s="12">
-        <v>0</v>
-      </c>
-      <c r="L68" s="12">
-        <v>0</v>
-      </c>
-      <c r="M68" s="12">
-        <v>0</v>
-      </c>
-      <c r="N68" s="12">
-        <v>0</v>
-      </c>
-      <c r="O68" s="12">
-        <v>0</v>
-      </c>
-      <c r="P68" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="12">
-        <v>0</v>
-      </c>
-      <c r="R68" s="12">
-        <v>0</v>
-      </c>
-      <c r="S68" s="12">
-        <v>0</v>
-      </c>
-      <c r="T68" s="12">
-        <v>0</v>
-      </c>
-      <c r="U68" s="12">
-        <v>0</v>
-      </c>
-      <c r="V68" s="12">
-        <v>0</v>
-      </c>
-      <c r="W68" s="12">
-        <v>0</v>
-      </c>
-      <c r="X68" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE68" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH68" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI68" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B68" s="13">
+        <v>0</v>
+      </c>
+      <c r="C68" s="11">
+        <v>0</v>
+      </c>
+      <c r="D68" s="11">
+        <v>0</v>
+      </c>
+      <c r="E68" s="11">
+        <v>0</v>
+      </c>
+      <c r="F68" s="11">
+        <v>0</v>
+      </c>
+      <c r="G68" s="11">
+        <v>0</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0</v>
+      </c>
+      <c r="I68" s="11">
+        <v>0</v>
+      </c>
+      <c r="J68" s="11">
+        <v>0</v>
+      </c>
+      <c r="K68" s="11">
+        <v>0</v>
+      </c>
+      <c r="L68" s="11">
+        <v>0</v>
+      </c>
+      <c r="M68" s="11">
+        <v>0</v>
+      </c>
+      <c r="N68" s="11">
+        <v>0</v>
+      </c>
+      <c r="O68" s="11">
+        <v>0</v>
+      </c>
+      <c r="P68" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="11">
+        <v>0</v>
+      </c>
+      <c r="R68" s="11">
+        <v>0</v>
+      </c>
+      <c r="S68" s="11">
+        <v>0</v>
+      </c>
+      <c r="T68" s="11">
+        <v>0</v>
+      </c>
+      <c r="U68" s="11">
+        <v>0</v>
+      </c>
+      <c r="V68" s="11">
+        <v>0</v>
+      </c>
+      <c r="W68" s="11">
+        <v>0</v>
+      </c>
+      <c r="X68" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="14">
-        <v>0</v>
-      </c>
-      <c r="C69" s="12">
-        <v>0</v>
-      </c>
-      <c r="D69" s="12">
-        <v>0</v>
-      </c>
-      <c r="E69" s="12">
-        <v>0</v>
-      </c>
-      <c r="F69" s="12">
-        <v>0</v>
-      </c>
-      <c r="G69" s="12">
-        <v>0</v>
-      </c>
-      <c r="H69" s="12">
-        <v>0</v>
-      </c>
-      <c r="I69" s="12">
-        <v>0</v>
-      </c>
-      <c r="J69" s="12">
-        <v>0</v>
-      </c>
-      <c r="K69" s="12">
-        <v>0</v>
-      </c>
-      <c r="L69" s="12">
-        <v>0</v>
-      </c>
-      <c r="M69" s="12">
-        <v>0</v>
-      </c>
-      <c r="N69" s="12">
-        <v>0</v>
-      </c>
-      <c r="O69" s="12">
-        <v>0</v>
-      </c>
-      <c r="P69" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="12">
-        <v>0</v>
-      </c>
-      <c r="R69" s="12">
-        <v>0</v>
-      </c>
-      <c r="S69" s="12">
-        <v>0</v>
-      </c>
-      <c r="T69" s="12">
-        <v>0</v>
-      </c>
-      <c r="U69" s="12">
-        <v>0</v>
-      </c>
-      <c r="V69" s="12">
-        <v>0</v>
-      </c>
-      <c r="W69" s="12">
-        <v>0</v>
-      </c>
-      <c r="X69" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH69" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI69" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B69" s="13">
+        <v>0</v>
+      </c>
+      <c r="C69" s="11">
+        <v>0</v>
+      </c>
+      <c r="D69" s="11">
+        <v>0</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0</v>
+      </c>
+      <c r="K69" s="11">
+        <v>0</v>
+      </c>
+      <c r="L69" s="11">
+        <v>0</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0</v>
+      </c>
+      <c r="O69" s="11">
+        <v>0</v>
+      </c>
+      <c r="P69" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="11">
+        <v>0</v>
+      </c>
+      <c r="R69" s="11">
+        <v>0</v>
+      </c>
+      <c r="S69" s="11">
+        <v>0</v>
+      </c>
+      <c r="T69" s="11">
+        <v>0</v>
+      </c>
+      <c r="U69" s="11">
+        <v>0</v>
+      </c>
+      <c r="V69" s="11">
+        <v>0</v>
+      </c>
+      <c r="W69" s="11">
+        <v>0</v>
+      </c>
+      <c r="X69" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="14">
-        <v>0</v>
-      </c>
-      <c r="C70" s="12">
-        <v>0</v>
-      </c>
-      <c r="D70" s="12">
-        <v>0</v>
-      </c>
-      <c r="E70" s="12">
-        <v>0</v>
-      </c>
-      <c r="F70" s="12">
-        <v>0</v>
-      </c>
-      <c r="G70" s="12">
-        <v>0</v>
-      </c>
-      <c r="H70" s="12">
-        <v>0</v>
-      </c>
-      <c r="I70" s="12">
-        <v>0</v>
-      </c>
-      <c r="J70" s="12">
-        <v>0</v>
-      </c>
-      <c r="K70" s="12">
-        <v>0</v>
-      </c>
-      <c r="L70" s="12">
-        <v>0</v>
-      </c>
-      <c r="M70" s="12">
-        <v>0</v>
-      </c>
-      <c r="N70" s="12">
-        <v>0</v>
-      </c>
-      <c r="O70" s="12">
-        <v>0</v>
-      </c>
-      <c r="P70" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="12">
-        <v>0</v>
-      </c>
-      <c r="R70" s="12">
-        <v>0</v>
-      </c>
-      <c r="S70" s="12">
-        <v>0</v>
-      </c>
-      <c r="T70" s="12">
-        <v>0</v>
-      </c>
-      <c r="U70" s="12">
-        <v>0</v>
-      </c>
-      <c r="V70" s="12">
-        <v>0</v>
-      </c>
-      <c r="W70" s="12">
-        <v>0</v>
-      </c>
-      <c r="X70" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE70" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF70" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH70" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI70" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B70" s="13">
+        <v>0</v>
+      </c>
+      <c r="C70" s="11">
+        <v>0</v>
+      </c>
+      <c r="D70" s="11">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0</v>
+      </c>
+      <c r="G70" s="11">
+        <v>0</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
+        <v>0</v>
+      </c>
+      <c r="J70" s="11">
+        <v>0</v>
+      </c>
+      <c r="K70" s="11">
+        <v>0</v>
+      </c>
+      <c r="L70" s="11">
+        <v>0</v>
+      </c>
+      <c r="M70" s="11">
+        <v>0</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0</v>
+      </c>
+      <c r="O70" s="11">
+        <v>0</v>
+      </c>
+      <c r="P70" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="11">
+        <v>0</v>
+      </c>
+      <c r="R70" s="11">
+        <v>0</v>
+      </c>
+      <c r="S70" s="11">
+        <v>0</v>
+      </c>
+      <c r="T70" s="11">
+        <v>0</v>
+      </c>
+      <c r="U70" s="11">
+        <v>0</v>
+      </c>
+      <c r="V70" s="11">
+        <v>0</v>
+      </c>
+      <c r="W70" s="11">
+        <v>0</v>
+      </c>
+      <c r="X70" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="14">
-        <v>0</v>
-      </c>
-      <c r="C71" s="12">
-        <v>0</v>
-      </c>
-      <c r="D71" s="12">
-        <v>0</v>
-      </c>
-      <c r="E71" s="12">
-        <v>0</v>
-      </c>
-      <c r="F71" s="12">
-        <v>0</v>
-      </c>
-      <c r="G71" s="12">
-        <v>0</v>
-      </c>
-      <c r="H71" s="12">
-        <v>0</v>
-      </c>
-      <c r="I71" s="12">
-        <v>0</v>
-      </c>
-      <c r="J71" s="12">
-        <v>0</v>
-      </c>
-      <c r="K71" s="12">
-        <v>0</v>
-      </c>
-      <c r="L71" s="12">
-        <v>0</v>
-      </c>
-      <c r="M71" s="12">
-        <v>0</v>
-      </c>
-      <c r="N71" s="12">
-        <v>0</v>
-      </c>
-      <c r="O71" s="12">
-        <v>0</v>
-      </c>
-      <c r="P71" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="12">
-        <v>0</v>
-      </c>
-      <c r="R71" s="12">
-        <v>0</v>
-      </c>
-      <c r="S71" s="12">
-        <v>0</v>
-      </c>
-      <c r="T71" s="12">
-        <v>0</v>
-      </c>
-      <c r="U71" s="12">
-        <v>0</v>
-      </c>
-      <c r="V71" s="12">
-        <v>0</v>
-      </c>
-      <c r="W71" s="12">
-        <v>0</v>
-      </c>
-      <c r="X71" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD71" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE71" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF71" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH71" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B71" s="13">
+        <v>0</v>
+      </c>
+      <c r="C71" s="11">
+        <v>0</v>
+      </c>
+      <c r="D71" s="11">
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>0</v>
+      </c>
+      <c r="J71" s="11">
+        <v>0</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0</v>
+      </c>
+      <c r="L71" s="11">
+        <v>0</v>
+      </c>
+      <c r="M71" s="11">
+        <v>0</v>
+      </c>
+      <c r="N71" s="11">
+        <v>0</v>
+      </c>
+      <c r="O71" s="11">
+        <v>0</v>
+      </c>
+      <c r="P71" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="11">
+        <v>0</v>
+      </c>
+      <c r="R71" s="11">
+        <v>0</v>
+      </c>
+      <c r="S71" s="11">
+        <v>0</v>
+      </c>
+      <c r="T71" s="11">
+        <v>0</v>
+      </c>
+      <c r="U71" s="11">
+        <v>0</v>
+      </c>
+      <c r="V71" s="11">
+        <v>0</v>
+      </c>
+      <c r="W71" s="11">
+        <v>0</v>
+      </c>
+      <c r="X71" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="14">
-        <v>0</v>
-      </c>
-      <c r="C72" s="12">
-        <v>0</v>
-      </c>
-      <c r="D72" s="12">
-        <v>0</v>
-      </c>
-      <c r="E72" s="12">
-        <v>0</v>
-      </c>
-      <c r="F72" s="12">
-        <v>0</v>
-      </c>
-      <c r="G72" s="12">
-        <v>0</v>
-      </c>
-      <c r="H72" s="12">
-        <v>0</v>
-      </c>
-      <c r="I72" s="12">
-        <v>0</v>
-      </c>
-      <c r="J72" s="12">
-        <v>0</v>
-      </c>
-      <c r="K72" s="12">
-        <v>0</v>
-      </c>
-      <c r="L72" s="12">
-        <v>0</v>
-      </c>
-      <c r="M72" s="12">
-        <v>0</v>
-      </c>
-      <c r="N72" s="12">
-        <v>0</v>
-      </c>
-      <c r="O72" s="12">
-        <v>0</v>
-      </c>
-      <c r="P72" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="12">
-        <v>0</v>
-      </c>
-      <c r="R72" s="12">
-        <v>0</v>
-      </c>
-      <c r="S72" s="12">
-        <v>0</v>
-      </c>
-      <c r="T72" s="12">
-        <v>0</v>
-      </c>
-      <c r="U72" s="12">
-        <v>0</v>
-      </c>
-      <c r="V72" s="12">
-        <v>0</v>
-      </c>
-      <c r="W72" s="12">
-        <v>0</v>
-      </c>
-      <c r="X72" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH72" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI72" s="9">
+      <c r="B72" s="13">
+        <v>0</v>
+      </c>
+      <c r="C72" s="11">
+        <v>0</v>
+      </c>
+      <c r="D72" s="11">
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>0</v>
+      </c>
+      <c r="J72" s="11">
+        <v>0</v>
+      </c>
+      <c r="K72" s="11">
+        <v>0</v>
+      </c>
+      <c r="L72" s="11">
+        <v>0</v>
+      </c>
+      <c r="M72" s="11">
+        <v>0</v>
+      </c>
+      <c r="N72" s="11">
+        <v>0</v>
+      </c>
+      <c r="O72" s="11">
+        <v>0</v>
+      </c>
+      <c r="P72" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>0</v>
+      </c>
+      <c r="R72" s="11">
+        <v>0</v>
+      </c>
+      <c r="S72" s="11">
+        <v>0</v>
+      </c>
+      <c r="T72" s="11">
+        <v>0</v>
+      </c>
+      <c r="U72" s="11">
+        <v>0</v>
+      </c>
+      <c r="V72" s="11">
+        <v>0</v>
+      </c>
+      <c r="W72" s="11">
+        <v>0</v>
+      </c>
+      <c r="X72" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="8">
         <v>0</v>
       </c>
     </row>
@@ -7470,17 +7468,17 @@
   </sheetPr>
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="22" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -7578,7 +7576,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -7677,7 +7675,7 @@
       </c>
       <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7776,33 +7774,27 @@
       </c>
       <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15">
-        <f>BCRBQ!B59</f>
-        <v>1500</v>
-      </c>
-      <c r="C4" s="15">
-        <f>BCRBQ!C59</f>
-        <v>1000</v>
-      </c>
-      <c r="D4" s="15">
-        <f>BCRBQ!D59</f>
-        <v>500</v>
-      </c>
-      <c r="E4" s="15">
-        <f>BCRBQ!E59</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <f>BCRBQ!F59</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <f>BCRBQ!G59</f>
-        <v>1500</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -7881,7 +7873,7 @@
       </c>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -7980,7 +7972,7 @@
       </c>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -8079,7 +8071,7 @@
       </c>
       <c r="AH6" s="1"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -8178,7 +8170,7 @@
       </c>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -8277,7 +8269,7 @@
       </c>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -8376,7 +8368,7 @@
       </c>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -8475,7 +8467,7 @@
       </c>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -8574,7 +8566,7 @@
       </c>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -8673,7 +8665,7 @@
       </c>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -8772,7 +8764,7 @@
       </c>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -8871,7 +8863,7 @@
       </c>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -8969,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -9067,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
